--- a/data/input/absenteeism_data_44.xlsx
+++ b/data/input/absenteeism_data_44.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6834</v>
+        <v>28320</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esther Dias</t>
+          <t>Rodrigo Nogueira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>4261.91</v>
+        <v>12055.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45718</v>
+        <v>90269</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Valentina da Rocha</t>
+          <t>Dr. Thales Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>5247.85</v>
+        <v>3100.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91226</v>
+        <v>51475</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Ana Carolina Barros</t>
+          <t>Ryan Ferreira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>12402.8</v>
+        <v>7401.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88511</v>
+        <v>2527</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leandro Cunha</t>
+          <t>Melissa da Paz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>4826.17</v>
+        <v>10589.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36614</v>
+        <v>14799</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariana Oliveira</t>
+          <t>Miguel das Neves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,56 +610,56 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>6457.44</v>
+        <v>6754.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76471</v>
+        <v>60452</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Felipe Barros</t>
+          <t>Sabrina Alves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>8412.07</v>
+        <v>11793.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82385</v>
+        <v>32595</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Fogaça</t>
+          <t>Pietra Santos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>8695.889999999999</v>
+        <v>6612.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85586</v>
+        <v>96191</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Vitória Cardoso</t>
+          <t>Bernardo Fernandes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>5869.25</v>
+        <v>6490.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17092</v>
+        <v>99016</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vicente Silveira</t>
+          <t>Sofia Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>4069.38</v>
+        <v>9064.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31701</v>
+        <v>27612</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Carolina Carvalho</t>
+          <t>Luna Melo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>10903.49</v>
+        <v>3262.61</v>
       </c>
     </row>
   </sheetData>
